--- a/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/StructureDefinition-jp-patient.xlsx
@@ -2366,45 +2366,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/StructureDefinition-jp-patient.xlsx
@@ -551,8 +551,7 @@
 この患者の識別子。</t>
   </si>
   <si>
-    <t>【JP_CORE】
-IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
+    <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
@@ -774,7 +773,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -811,9 +810,9 @@
 Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
 It is often used to filter patient lists to exclude inactive patients
 Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.
-この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークします。
-非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用されます
-死亡した患者は、同じ理由で不活性とマークされる場合がありますが、死後しばらくは活性である場合があります。</t>
+この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。
+非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。
+死亡した患者は、同じ理由で不活性とマークされる場合があるが、死後しばらくは活性である場合がある。</t>
   </si>
   <si>
     <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.
@@ -822,7 +821,7 @@
   </si>
   <si>
     <t>Need to be able to mark a patient record as not to be used because it was created in error.
-患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要があります。</t>
+患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -849,14 +848,12 @@
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-患者は、用途や適用期間が異なる複数の名前を持つ場合があります。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」です。
---------SWG3 コメント-----------
-FHIRデータ型仕様に従って、以下の案とした。
+患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。
+FHIRデータ型仕様に従って、以下の内容を採用する。
 ・姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する。
 ・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
 ・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
 ・各名前パートとtext は、両方存在してもよい。
-　※診療文書構造化記述規約等では、姓に指定するとなっていた。
 ・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。
 ・漢字、カナの指定がない場合やローマ字名の場合などはデフォルトスライスが適用される。</t>
   </si>
@@ -1481,11 +1478,11 @@
     <t>Patient.address.period</t>
   </si>
   <si>
-    <t>Time period when address was/is in use　住所が使用されていた\（いる）期間</t>
+    <t>Time period when address was/is in use　住所が使用されていた（いる）期間</t>
   </si>
   <si>
     <t>Time period when address was/is in use.
-住所が使用されていた\（いる）期間</t>
+住所が使用されていた（いる）期間</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -1925,7 +1922,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -2008,7 +2005,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
